--- a/Results/Final Results/Scenarios/Scenarios_01.xlsx
+++ b/Results/Final Results/Scenarios/Scenarios_01.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829B0ADF-4136-4698-8CCC-CBA489E1CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DF2AB0-26B7-400C-B403-ED8D2248C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestingFile3 (6)" sheetId="7" r:id="rId1"/>
@@ -39,23 +39,23 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Abfrage - TestingFile3" description="Verbindung mit der Abfrage 'TestingFile3' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Abfrage - TestingFile3" description="Verbindung mit der Abfrage 'TestingFile3' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=TestingFile3;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Abfrage - TestingFile3 (2)" description="Verbindung mit der Abfrage 'TestingFile3 (2)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Abfrage - TestingFile3 (2)" description="Verbindung mit der Abfrage 'TestingFile3 (2)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TestingFile3 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3 (2)]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Abfrage - TestingFile3 (3)" description="Verbindung mit der Abfrage 'TestingFile3 (3)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Abfrage - TestingFile3 (3)" description="Verbindung mit der Abfrage 'TestingFile3 (3)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TestingFile3 (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3 (3)]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Abfrage - TestingFile3 (4)" description="Verbindung mit der Abfrage 'TestingFile3 (4)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Abfrage - TestingFile3 (4)" description="Verbindung mit der Abfrage 'TestingFile3 (4)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TestingFile3 (4)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3 (4)]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Abfrage - TestingFile3 (5)" description="Verbindung mit der Abfrage 'TestingFile3 (5)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Abfrage - TestingFile3 (5)" description="Verbindung mit der Abfrage 'TestingFile3 (5)' in der Arbeitsmappe." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TestingFile3 (5)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3 (5)]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="Abfrage - TestingFile3 (6)" description="Verbindung mit der Abfrage 'TestingFile3 (6)' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Abfrage - TestingFile3 (6)" description="Verbindung mit der Abfrage 'TestingFile3 (6)' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TestingFile3 (6)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TestingFile3 (6)]"/>
   </connection>
 </connections>
@@ -109,8 +109,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +143,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,7 +179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_6" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_6" connectionId="6" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
     <queryTableFields count="14">
       <queryTableField id="1" name="Omega" tableColumnId="1"/>
@@ -182,7 +202,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
     <queryTableFields count="14">
       <queryTableField id="1" name="Omega" tableColumnId="1"/>
@@ -205,46 +225,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TestingFile3__6" displayName="TestingFile3__6" ref="A1:N7" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TestingFile3__6" displayName="TestingFile3__6" ref="A1:N7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N7" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="1" name="Omega" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Tolerance" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Gap LR" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Gap Naive" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="Gap" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="LB Heuristic" queryTableFieldId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Omega" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Tolerance" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Gap Naive" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="LB Heuristic" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TestingFile3" displayName="TestingFile3" ref="A1:N37" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TestingFile3" displayName="TestingFile3" ref="A1:N37" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="1" name="Omega" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Tolerance" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Gap LR" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Gap Naive" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="Gap" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="LB Heuristic" queryTableFieldId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Omega" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Tolerance" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Prozent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Gap Naive" queryTableFieldId="7" dataDxfId="0" dataCellStyle="Prozent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10" dataDxfId="2" dataCellStyle="Prozent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="LB Heuristic" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,11 +922,11 @@
     <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -929,10 +949,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -941,7 +961,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -973,10 +993,10 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>7.2700000000000004E-3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2">
@@ -985,7 +1005,7 @@
       <c r="I2">
         <v>275.01013999999998</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>7.2700000000000004E-3</v>
       </c>
       <c r="K2">
@@ -1017,10 +1037,10 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3">
@@ -1029,7 +1049,7 @@
       <c r="I3">
         <v>273.13574</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="K3">
@@ -1061,10 +1081,10 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>7.62E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4">
@@ -1073,7 +1093,7 @@
       <c r="I4">
         <v>275.10703999999998</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>7.62E-3</v>
       </c>
       <c r="K4">
@@ -1105,10 +1125,10 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>7.6699999999999997E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5">
@@ -1117,7 +1137,7 @@
       <c r="I5">
         <v>275.12162000000001</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>7.6699999999999997E-3</v>
       </c>
       <c r="K5">
@@ -1149,10 +1169,10 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>7.7499999999999999E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6">
@@ -1161,7 +1181,7 @@
       <c r="I6">
         <v>275.14514000000003</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>7.7499999999999999E-3</v>
       </c>
       <c r="K6">
@@ -1193,10 +1213,10 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7">
@@ -1205,7 +1225,7 @@
       <c r="I7">
         <v>273.01152999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7">
@@ -1237,10 +1257,10 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>8.6700000000000006E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H8">
@@ -1249,7 +1269,7 @@
       <c r="I8">
         <v>280.60539999999997</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>7.5300000000000002E-3</v>
       </c>
       <c r="K8">
@@ -1281,10 +1301,10 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>5.2599999999999999E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H9">
@@ -1293,7 +1313,7 @@
       <c r="I9">
         <v>279.6454</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>4.1200000000000004E-3</v>
       </c>
       <c r="K9">
@@ -1325,10 +1345,10 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1.004E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H10">
@@ -1337,7 +1357,7 @@
       <c r="I10">
         <v>280.99302</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="K10">
@@ -1369,10 +1389,10 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1.0240000000000001E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H11">
@@ -1381,7 +1401,7 @@
       <c r="I11">
         <v>281.05131</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>9.11E-3</v>
       </c>
       <c r="K11">
@@ -1413,10 +1433,10 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1.057E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H12">
@@ -1425,7 +1445,7 @@
       <c r="I12">
         <v>281.1454</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>9.4400000000000005E-3</v>
       </c>
       <c r="K12">
@@ -1457,10 +1477,10 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="H13">
@@ -1469,7 +1489,7 @@
       <c r="I13">
         <v>279.61088000000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K13">
@@ -1501,10 +1521,10 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1.154E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H14">
@@ -1513,7 +1533,7 @@
       <c r="I14">
         <v>279.62211000000002</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>2.4599999999999999E-3</v>
       </c>
       <c r="K14">
@@ -1545,10 +1565,10 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1.1860000000000001E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H15">
@@ -1557,7 +1577,7 @@
       <c r="I15">
         <v>279.71211</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="K15">
@@ -1589,10 +1609,10 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1.1730000000000001E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H16">
@@ -1601,7 +1621,7 @@
       <c r="I16">
         <v>279.67401000000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>2.64E-3</v>
       </c>
       <c r="K16">
@@ -1633,10 +1653,10 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1.1780000000000001E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H17">
@@ -1645,7 +1665,7 @@
       <c r="I17">
         <v>279.68858</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="K17">
@@ -1677,10 +1697,10 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1.1860000000000001E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H18">
@@ -1689,7 +1709,7 @@
       <c r="I18">
         <v>279.71211</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>2.7799999999999999E-3</v>
       </c>
       <c r="K18">
@@ -1721,10 +1741,10 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>9.8399999999999998E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="H19">
@@ -1733,7 +1753,7 @@
       <c r="I19">
         <v>279.14121999999998</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="K19">
@@ -1765,10 +1785,10 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>1.482E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H20">
@@ -1777,7 +1797,7 @@
       <c r="I20">
         <v>278.65789000000001</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>3.8899999999999998E-3</v>
       </c>
       <c r="K20">
@@ -1809,10 +1829,10 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>1.546E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H21">
@@ -1821,7 +1841,7 @@
       <c r="I21">
         <v>278.83789000000002</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="K21">
@@ -1853,10 +1873,10 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>1.5089999999999999E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H22">
@@ -1865,7 +1885,7 @@
       <c r="I22">
         <v>278.73174999999998</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>4.15E-3</v>
       </c>
       <c r="K22">
@@ -1897,10 +1917,10 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>1.523E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H23">
@@ -1909,7 +1929,7 @@
       <c r="I23">
         <v>278.77325999999999</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>4.3E-3</v>
       </c>
       <c r="K23">
@@ -1941,10 +1961,10 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>1.546E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H24">
@@ -1953,7 +1973,7 @@
       <c r="I24">
         <v>278.83789000000002</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>4.5300000000000002E-3</v>
       </c>
       <c r="K24">
@@ -1985,10 +2005,10 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>3.5E-4</v>
       </c>
       <c r="H25">
@@ -1997,7 +2017,7 @@
       <c r="I25">
         <v>277.98327999999998</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>1.47E-3</v>
       </c>
       <c r="K25">
@@ -2029,10 +2049,10 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H26">
@@ -2041,7 +2061,7 @@
       <c r="I26">
         <v>276.87612999999999</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>4.2900000000000004E-3</v>
       </c>
       <c r="K26">
@@ -2073,10 +2093,10 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H27">
@@ -2085,7 +2105,7 @@
       <c r="I27">
         <v>276.44170000000003</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>2.7200000000000002E-3</v>
       </c>
       <c r="K27">
@@ -2117,10 +2137,10 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>5.4799999999999996E-3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H28">
@@ -2129,7 +2149,7 @@
       <c r="I28">
         <v>277.20769999999999</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>5.4799999999999996E-3</v>
       </c>
       <c r="K28">
@@ -2161,10 +2181,10 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H29">
@@ -2173,7 +2193,7 @@
       <c r="I29">
         <v>277.36770000000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="K29">
@@ -2205,10 +2225,10 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H30">
@@ -2217,7 +2237,7 @@
       <c r="I30">
         <v>277.68770000000001</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="K30">
@@ -2249,10 +2269,10 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>4.3899999999999998E-3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H31">
@@ -2261,7 +2281,7 @@
       <c r="I31">
         <v>276.90544</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>4.3899999999999998E-3</v>
       </c>
       <c r="K31">
@@ -2293,10 +2313,10 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>8.0599999999999995E-3</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H32">
@@ -2305,7 +2325,7 @@
       <c r="I32">
         <v>270.16338999999999</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>8.0599999999999995E-3</v>
       </c>
       <c r="K32">
@@ -2337,10 +2357,10 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>1.9349999999999999E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H33">
@@ -2349,7 +2369,7 @@
       <c r="I33">
         <v>273.27260000000001</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>1.9349999999999999E-2</v>
       </c>
       <c r="K33">
@@ -2381,10 +2401,10 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1.9349999999999999E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H34">
@@ -2393,7 +2413,7 @@
       <c r="I34">
         <v>273.27260000000001</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>1.9349999999999999E-2</v>
       </c>
       <c r="K34">
@@ -2425,10 +2445,10 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1.9689999999999999E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H35">
@@ -2437,7 +2457,7 @@
       <c r="I35">
         <v>273.36849999999998</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>1.9689999999999999E-2</v>
       </c>
       <c r="K35">
@@ -2469,10 +2489,10 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>1.9709999999999998E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H36">
@@ -2481,7 +2501,7 @@
       <c r="I36">
         <v>273.37349999999998</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>1.9709999999999998E-2</v>
       </c>
       <c r="K36">
@@ -2513,10 +2533,10 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>1.9709999999999998E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="H37">
@@ -2525,7 +2545,7 @@
       <c r="I37">
         <v>273.37349999999998</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>1.9709999999999998E-2</v>
       </c>
       <c r="K37">
